--- a/biology/Zoologie/Hirondelle_de_Cuba/Hirondelle_de_Cuba.xlsx
+++ b/biology/Zoologie/Hirondelle_de_Cuba/Hirondelle_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Progne cryptoleuca
 L'Hirondelle de Cuba (Progne cryptoleuca) est une espèce de passereau de la famille des Hirundinidae, nicheur endémique de Cuba, avec quelques rares observations en Floride, aux Bahamas, aux îles Turques-et-Caïques, au Guatemala et aux îles Sous-le-Vent.
